--- a/src/test/resources/TestData/Ds-AlgoTestData.xlsx
+++ b/src/test/resources/TestData/Ds-AlgoTestData.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17402EFC-4610-42F2-B4ED-E621BD1DE8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3414354D-EFC2-4076-953F-30A7662315EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pythoncode" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Options" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:L4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Pcode</t>
   </si>
@@ -95,12 +96,33 @@
   <si>
     <t>invalid</t>
   </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>Linkedlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree </t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +137,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,12 +166,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -519,7 +550,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,12 +603,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>